--- a/data/trans_orig/P1403-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1403-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>108591</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>91005</v>
+        <v>92360</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>128570</v>
+        <v>129831</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1564680277517345</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1311293197809202</v>
+        <v>0.1330810568758205</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1852560995345235</v>
+        <v>0.1870736561462654</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>112</v>
@@ -765,19 +765,19 @@
         <v>109793</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>89737</v>
+        <v>93917</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>128588</v>
+        <v>130220</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1595014044479701</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1303651806395675</v>
+        <v>0.1364378457396082</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1868058234623887</v>
+        <v>0.1891768799007554</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>221</v>
@@ -786,19 +786,19 @@
         <v>218384</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>192694</v>
+        <v>190080</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>244182</v>
+        <v>244954</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1579785049101882</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1393945707481469</v>
+        <v>0.1375039373556516</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1766413125192939</v>
+        <v>0.1771991554173408</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>585421</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>565442</v>
+        <v>564181</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>603007</v>
+        <v>601652</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8435319722482655</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8147439004654764</v>
+        <v>0.8129263438537345</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8688706802190798</v>
+        <v>0.8669189431241782</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>584</v>
@@ -836,19 +836,19 @@
         <v>578558</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>559763</v>
+        <v>558131</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>598614</v>
+        <v>594434</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8404985955520299</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8131941765376112</v>
+        <v>0.8108231200992444</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8696348193604324</v>
+        <v>0.8635621542603918</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1158</v>
@@ -857,19 +857,19 @@
         <v>1163979</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1138181</v>
+        <v>1137409</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1189669</v>
+        <v>1192283</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8420214950898118</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8233586874807061</v>
+        <v>0.8228008445826598</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.860605429251853</v>
+        <v>0.8624960626443489</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>116173</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>96737</v>
+        <v>97488</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>136540</v>
+        <v>137665</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1207867389399013</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1005786311934837</v>
+        <v>0.1013603900992956</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1419627406904942</v>
+        <v>0.1431324334740943</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>164</v>
@@ -982,19 +982,19 @@
         <v>176570</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>153986</v>
+        <v>154084</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>201682</v>
+        <v>201136</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1823330335300578</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1590120834480239</v>
+        <v>0.1591135387937677</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.208264379952002</v>
+        <v>0.20770118045622</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>278</v>
@@ -1003,19 +1003,19 @@
         <v>292743</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>262766</v>
+        <v>263771</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>323822</v>
+        <v>325038</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.15166499954778</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1361344059468312</v>
+        <v>0.1366554614409582</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1677666362469118</v>
+        <v>0.168396437502832</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>845627</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>825260</v>
+        <v>824135</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>865063</v>
+        <v>864312</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8792132610600987</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8580372593095058</v>
+        <v>0.8568675665259058</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8994213688065164</v>
+        <v>0.898639609900705</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>744</v>
@@ -1053,19 +1053,19 @@
         <v>791823</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>766711</v>
+        <v>767257</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>814407</v>
+        <v>814309</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8176669664699423</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7917356200479981</v>
+        <v>0.7922988195437799</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8409879165519761</v>
+        <v>0.8408864612062323</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1526</v>
@@ -1074,19 +1074,19 @@
         <v>1637450</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1606371</v>
+        <v>1605155</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1667427</v>
+        <v>1666422</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.84833500045222</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8322333637530881</v>
+        <v>0.8316035624971679</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8638655940531687</v>
+        <v>0.8633445385590418</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>86209</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>69881</v>
+        <v>70989</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>107288</v>
+        <v>106595</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1270565422179754</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1029916451933917</v>
+        <v>0.1046245211481425</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1581228151148406</v>
+        <v>0.1571014010257786</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>119</v>
@@ -1199,19 +1199,19 @@
         <v>118855</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>98868</v>
+        <v>100122</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>139672</v>
+        <v>139275</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1738048824738826</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1445775312167408</v>
+        <v>0.1464106550927656</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2042467147404165</v>
+        <v>0.2036661704136092</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>203</v>
@@ -1220,19 +1220,19 @@
         <v>205064</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>181902</v>
+        <v>179743</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>231634</v>
+        <v>232605</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1505221968486417</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.133520433336266</v>
+        <v>0.1319359759822351</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1700256729250172</v>
+        <v>0.170738240533315</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>592300</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>571221</v>
+        <v>571914</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>608628</v>
+        <v>607520</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8729434577820246</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8418771848851594</v>
+        <v>0.8428985989742215</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8970083548066085</v>
+        <v>0.8953754788518575</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>577</v>
@@ -1270,19 +1270,19 @@
         <v>564986</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>544169</v>
+        <v>544566</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>584973</v>
+        <v>583719</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8261951175261174</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7957532852595834</v>
+        <v>0.7963338295863909</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.855422468783259</v>
+        <v>0.8535893449072345</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1134</v>
@@ -1291,19 +1291,19 @@
         <v>1157286</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1130716</v>
+        <v>1129745</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1180448</v>
+        <v>1182607</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8494778031513583</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8299743270749824</v>
+        <v>0.8292617594666849</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8664795666637339</v>
+        <v>0.8680640240177647</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>116248</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>97339</v>
+        <v>99015</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>134901</v>
+        <v>136628</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1233763109441738</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1033075161033378</v>
+        <v>0.1050867384677915</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1431734334180191</v>
+        <v>0.1450060539671885</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>161</v>
@@ -1416,19 +1416,19 @@
         <v>167582</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>143832</v>
+        <v>146478</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>191568</v>
+        <v>192218</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1613516016069165</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1384846492032394</v>
+        <v>0.1410320774487765</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1844465328058784</v>
+        <v>0.1850720689813163</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>291</v>
@@ -1437,19 +1437,19 @@
         <v>283830</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>253852</v>
+        <v>253479</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>314456</v>
+        <v>320313</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1432879192461776</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1281539696099779</v>
+        <v>0.1279657435520654</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.158749059534391</v>
+        <v>0.161706064297493</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>825974</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>807321</v>
+        <v>805594</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>844883</v>
+        <v>843207</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8766236890558262</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.856826566581981</v>
+        <v>0.8549939460328114</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8966924838966622</v>
+        <v>0.8949132615322085</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>836</v>
@@ -1487,19 +1487,19 @@
         <v>871030</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>847044</v>
+        <v>846394</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>894780</v>
+        <v>892134</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8386483983930835</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8155534671941218</v>
+        <v>0.8149279310186837</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8615153507967611</v>
+        <v>0.8589679225512235</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1700</v>
@@ -1508,19 +1508,19 @@
         <v>1697004</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1666378</v>
+        <v>1660521</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1726982</v>
+        <v>1727355</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8567120807538224</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.841250940465609</v>
+        <v>0.838293935702507</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8718460303900222</v>
+        <v>0.8720342564479345</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>427220</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>390162</v>
+        <v>392975</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>461222</v>
+        <v>465588</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1303875023548679</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1190774442169663</v>
+        <v>0.1199360001544244</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.140764783986977</v>
+        <v>0.1420972124981716</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>556</v>
@@ -1633,19 +1633,19 @@
         <v>572800</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>531505</v>
+        <v>530859</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>616521</v>
+        <v>613396</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1695076079990115</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1572873601588115</v>
+        <v>0.1570960726635292</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1824461428922814</v>
+        <v>0.1815213150850077</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>993</v>
@@ -1654,19 +1654,19 @@
         <v>1000020</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>938882</v>
+        <v>944598</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1053732</v>
+        <v>1060589</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1502492372171193</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1410635251657069</v>
+        <v>0.14192235129128</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1583193070288458</v>
+        <v>0.1593495410290106</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>2849323</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2815321</v>
+        <v>2810955</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2886381</v>
+        <v>2883568</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8696124976451322</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.859235216013023</v>
+        <v>0.8579027875018285</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8809225557830339</v>
+        <v>0.8800639998455756</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2741</v>
@@ -1704,19 +1704,19 @@
         <v>2806397</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2762676</v>
+        <v>2765801</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2847692</v>
+        <v>2848338</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8304923920009885</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8175538571077187</v>
+        <v>0.8184786849149923</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8427126398411884</v>
+        <v>0.8429039273364707</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5518</v>
@@ -1725,19 +1725,19 @@
         <v>5655721</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5602009</v>
+        <v>5595152</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5716859</v>
+        <v>5711143</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8497507627828808</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8416806929711542</v>
+        <v>0.8406504589709894</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8589364748342931</v>
+        <v>0.8580776487087201</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>137749</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>117461</v>
+        <v>116722</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>162524</v>
+        <v>159981</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1958134672062865</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.16697326855272</v>
+        <v>0.1659237597367082</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2310322253204744</v>
+        <v>0.2274167945180387</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>159</v>
@@ -2090,19 +2090,19 @@
         <v>171000</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>148134</v>
+        <v>148746</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>193762</v>
+        <v>196098</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2453198681185031</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2125150730301748</v>
+        <v>0.2133936103066043</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2779742794077201</v>
+        <v>0.2813257197995958</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>287</v>
@@ -2111,19 +2111,19 @@
         <v>308749</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>279500</v>
+        <v>277813</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>338840</v>
+        <v>345423</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2204532166568234</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1995689000517062</v>
+        <v>0.1983646192961773</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2419387832067648</v>
+        <v>0.2466391652649828</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>565720</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>540945</v>
+        <v>543488</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>586008</v>
+        <v>586747</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8041865327937135</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.768967774679525</v>
+        <v>0.772583205481961</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8330267314472797</v>
+        <v>0.8340762402632919</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>491</v>
@@ -2161,19 +2161,19 @@
         <v>526050</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>503288</v>
+        <v>500952</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>548916</v>
+        <v>548304</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.754680131881497</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7220257205922795</v>
+        <v>0.7186742802004041</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7874849269698245</v>
+        <v>0.7866063896933956</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1037</v>
@@ -2182,19 +2182,19 @@
         <v>1091770</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1061679</v>
+        <v>1055096</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1121019</v>
+        <v>1122706</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7795467833431765</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7580612167932352</v>
+        <v>0.7533608347350177</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8004310999482945</v>
+        <v>0.8016353807038227</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>148866</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>126780</v>
+        <v>125381</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>173977</v>
+        <v>173403</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1462410252395228</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1245447132050691</v>
+        <v>0.1231700737123939</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1709095338737955</v>
+        <v>0.1703461827955646</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>177</v>
@@ -2307,19 +2307,19 @@
         <v>193223</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>166767</v>
+        <v>164621</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>217734</v>
+        <v>217713</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1877820842607952</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1620713159478502</v>
+        <v>0.159985477050811</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2116036101086051</v>
+        <v>0.2115832141511634</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>312</v>
@@ -2328,19 +2328,19 @@
         <v>342088</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>307424</v>
+        <v>308323</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>378440</v>
+        <v>378574</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1671234401975285</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1501885507516588</v>
+        <v>0.1506279112537778</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1848823364911584</v>
+        <v>0.1849478457109723</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>869081</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>843970</v>
+        <v>844544</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>891167</v>
+        <v>892566</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8537589747604771</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8290904661262047</v>
+        <v>0.829653817204436</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.875455286794931</v>
+        <v>0.8768299262876063</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>761</v>
@@ -2378,19 +2378,19 @@
         <v>835750</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>811239</v>
+        <v>811260</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>862206</v>
+        <v>864352</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8122179157392049</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7883963898913952</v>
+        <v>0.7884167858488365</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8379286840521498</v>
+        <v>0.8400145229491885</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1562</v>
@@ -2399,19 +2399,19 @@
         <v>1704833</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1668481</v>
+        <v>1668347</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1739497</v>
+        <v>1738598</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8328765598024715</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8151176635088416</v>
+        <v>0.8150521542890276</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8498114492483413</v>
+        <v>0.8493720887462222</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>112807</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>93283</v>
+        <v>94479</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>134622</v>
+        <v>136336</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1488962005286844</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1231252632293756</v>
+        <v>0.1247044574321829</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1776899581619612</v>
+        <v>0.1799521077467711</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>124</v>
@@ -2524,19 +2524,19 @@
         <v>134749</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>116112</v>
+        <v>115738</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>159303</v>
+        <v>157949</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1736312380663081</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1496167482985011</v>
+        <v>0.1491341555797308</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2052706874329799</v>
+        <v>0.2035252107688918</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>224</v>
@@ -2545,19 +2545,19 @@
         <v>247556</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>215716</v>
+        <v>218264</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>279005</v>
+        <v>278964</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1614124346033643</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1406517823782318</v>
+        <v>0.1423133690041382</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1819173808879729</v>
+        <v>0.1818907009471671</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>644816</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>623001</v>
+        <v>621287</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>664340</v>
+        <v>663144</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8511037994713155</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8223100418380388</v>
+        <v>0.8200478922532288</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8768747367706244</v>
+        <v>0.8752955425678171</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>580</v>
@@ -2595,19 +2595,19 @@
         <v>641316</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>616762</v>
+        <v>618116</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>659953</v>
+        <v>660327</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8263687619336919</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7947293125670203</v>
+        <v>0.7964747892311083</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.850383251701499</v>
+        <v>0.8508658444202692</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1169</v>
@@ -2616,19 +2616,19 @@
         <v>1286133</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1254684</v>
+        <v>1254725</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1317973</v>
+        <v>1315425</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8385875653966357</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8180826191120272</v>
+        <v>0.8181092990528328</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8593482176217683</v>
+        <v>0.8576866309958617</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>177157</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>153509</v>
+        <v>154079</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>202373</v>
+        <v>203068</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.186925706841252</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1619735282938558</v>
+        <v>0.16257556847443</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2135328314303243</v>
+        <v>0.2142661125376156</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>231</v>
@@ -2741,19 +2741,19 @@
         <v>246222</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>216723</v>
+        <v>217540</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>275871</v>
+        <v>274099</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2340735596966612</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2060297786644454</v>
+        <v>0.2068065965440732</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2622590329711281</v>
+        <v>0.2605750400274631</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>392</v>
@@ -2762,19 +2762,19 @@
         <v>423379</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>386460</v>
+        <v>385281</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>464545</v>
+        <v>462765</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2117276034456358</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1932647191612971</v>
+        <v>0.1926749367633422</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2323145589656304</v>
+        <v>0.2314239262987903</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>770582</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>745366</v>
+        <v>744671</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>794230</v>
+        <v>793660</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.813074293158748</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7864671685696758</v>
+        <v>0.7857338874623844</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8380264717061444</v>
+        <v>0.83742443152557</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>772</v>
@@ -2812,19 +2812,19 @@
         <v>805679</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>776030</v>
+        <v>777802</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>835178</v>
+        <v>834361</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7659264403033388</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7377409670288717</v>
+        <v>0.739424959972537</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7939702213355544</v>
+        <v>0.7931934034559269</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1521</v>
@@ -2833,19 +2833,19 @@
         <v>1576261</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1535095</v>
+        <v>1536875</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1613180</v>
+        <v>1614359</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7882723965543641</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7676854410343694</v>
+        <v>0.7685760737012094</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8067352808387028</v>
+        <v>0.8073250632366578</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>576578</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>529592</v>
+        <v>531616</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>621119</v>
+        <v>620454</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1682566781647132</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1545451281408175</v>
+        <v>0.1551357116521257</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1812543355865568</v>
+        <v>0.1810603239779834</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>691</v>
@@ -2958,19 +2958,19 @@
         <v>745194</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>698521</v>
+        <v>697261</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>794942</v>
+        <v>795830</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2096782586834362</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1965456280369122</v>
+        <v>0.1961909835707255</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2236760078358644</v>
+        <v>0.2239258875936537</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1215</v>
@@ -2979,19 +2979,19 @@
         <v>1321773</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1250743</v>
+        <v>1259635</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1389772</v>
+        <v>1393788</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1893448824549868</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1791697911722974</v>
+        <v>0.1804435993573174</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1990857311681808</v>
+        <v>0.1996610315538545</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>2850201</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2805660</v>
+        <v>2806325</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2897187</v>
+        <v>2895163</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8317433218352869</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8187456644134432</v>
+        <v>0.8189396760220166</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8454548718591824</v>
+        <v>0.8448642883478744</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2604</v>
@@ -3029,19 +3029,19 @@
         <v>2808796</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2759048</v>
+        <v>2758160</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2855469</v>
+        <v>2856729</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7903217413165639</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7763239921641353</v>
+        <v>0.7760741124063466</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8034543719630878</v>
+        <v>0.8038090164292747</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5289</v>
@@ -3050,19 +3050,19 @@
         <v>5658996</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5590997</v>
+        <v>5586981</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5730026</v>
+        <v>5721134</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8106551175450133</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8009142688318194</v>
+        <v>0.8003389684461455</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8208302088277027</v>
+        <v>0.8195564006426825</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>103056</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>87276</v>
+        <v>86818</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>124163</v>
+        <v>124013</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1527201940835257</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1293367712003397</v>
+        <v>0.1286574394348929</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.183999205419125</v>
+        <v>0.1837771489477139</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>124</v>
@@ -3415,19 +3415,19 @@
         <v>131909</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>110253</v>
+        <v>112664</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>153605</v>
+        <v>153156</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1960489714771181</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1638629447496969</v>
+        <v>0.1674455832741337</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2282932891183828</v>
+        <v>0.2276269151211694</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>230</v>
@@ -3436,19 +3436,19 @@
         <v>234965</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>206589</v>
+        <v>207544</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>261540</v>
+        <v>262518</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1743530580852772</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1532966683770447</v>
+        <v>0.1540057513499648</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1940729004247547</v>
+        <v>0.1947981568264888</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>571744</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>550637</v>
+        <v>550787</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>587524</v>
+        <v>587982</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8472798059164742</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.816000794580875</v>
+        <v>0.8162228510522861</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8706632287996604</v>
+        <v>0.8713425605651071</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>542</v>
@@ -3486,19 +3486,19 @@
         <v>540930</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>519234</v>
+        <v>519683</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>562586</v>
+        <v>560175</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8039510285228819</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7717067108816172</v>
+        <v>0.7723730848788307</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8361370552503034</v>
+        <v>0.8325544167258663</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1088</v>
@@ -3507,19 +3507,19 @@
         <v>1112674</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1086099</v>
+        <v>1085121</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1141050</v>
+        <v>1140095</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8256469419147228</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.805927099575245</v>
+        <v>0.8052018431735113</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8467033316229552</v>
+        <v>0.8459942486500353</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>158286</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>135092</v>
+        <v>133545</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>183492</v>
+        <v>181561</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1548132445931097</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.132128147161775</v>
+        <v>0.130615173648892</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1794667435960696</v>
+        <v>0.177577797168872</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>147</v>
@@ -3632,19 +3632,19 @@
         <v>176081</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>149533</v>
+        <v>149739</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>200909</v>
+        <v>201933</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1688353444139792</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.143379840615718</v>
+        <v>0.1435774233407472</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1926418835980596</v>
+        <v>0.1936244022902566</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>299</v>
@@ -3653,19 +3653,19 @@
         <v>334366</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>300494</v>
+        <v>302665</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>368282</v>
+        <v>370107</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1618938230644304</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1454935022836424</v>
+        <v>0.146544814017672</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1783149080615559</v>
+        <v>0.1791985998989018</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>864145</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>838939</v>
+        <v>840870</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>887339</v>
+        <v>888886</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8451867554068903</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8205332564039304</v>
+        <v>0.8224222028311281</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8678718528382249</v>
+        <v>0.869384826351108</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>830</v>
@@ -3703,19 +3703,19 @@
         <v>866832</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>842004</v>
+        <v>840980</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>893380</v>
+        <v>893174</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8311646555860207</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8073581164019404</v>
+        <v>0.806375597709743</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.856620159384282</v>
+        <v>0.8564225766592527</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1629</v>
@@ -3724,19 +3724,19 @@
         <v>1730978</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1697062</v>
+        <v>1695237</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1764850</v>
+        <v>1762679</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8381061769355697</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8216850919384441</v>
+        <v>0.8208014001010981</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8545064977163574</v>
+        <v>0.8534551859823281</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>108410</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>89884</v>
+        <v>89359</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>128712</v>
+        <v>128535</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1427287176773886</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1183382982023101</v>
+        <v>0.1176471574614003</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.169458265100317</v>
+        <v>0.1692242393802647</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>119</v>
@@ -3849,19 +3849,19 @@
         <v>140548</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>120767</v>
+        <v>117733</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>166197</v>
+        <v>163913</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1790399858503054</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1538411316174942</v>
+        <v>0.1499760653678104</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2117131633184108</v>
+        <v>0.2088038666832875</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>221</v>
@@ -3870,19 +3870,19 @@
         <v>248958</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>220305</v>
+        <v>220738</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>279888</v>
+        <v>279947</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1611836063494607</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1426324412903378</v>
+        <v>0.1429127205921762</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1812087319059452</v>
+        <v>0.1812469256143041</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>651142</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>630840</v>
+        <v>631017</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>669668</v>
+        <v>670193</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8572712823226114</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8305417348996826</v>
+        <v>0.8307757606197353</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8816617017976899</v>
+        <v>0.8823528425385997</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>617</v>
@@ -3920,19 +3920,19 @@
         <v>644463</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>618814</v>
+        <v>621098</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>664244</v>
+        <v>667278</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8209600141496947</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7882868366815892</v>
+        <v>0.7911961333167125</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8461588683825058</v>
+        <v>0.8500239346321883</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1211</v>
@@ -3941,19 +3941,19 @@
         <v>1295605</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1264675</v>
+        <v>1264616</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1324258</v>
+        <v>1323825</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8388163936505393</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8187912680940548</v>
+        <v>0.8187530743856958</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8573675587096623</v>
+        <v>0.8570872794078238</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>144422</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>123510</v>
+        <v>122441</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>166055</v>
+        <v>168732</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1540393224999144</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1317348680707024</v>
+        <v>0.1305939903837521</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1771121977321231</v>
+        <v>0.1799678619439933</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>149</v>
@@ -4066,19 +4066,19 @@
         <v>180865</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>155847</v>
+        <v>156951</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>209888</v>
+        <v>210117</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1732789032160962</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1493100958663237</v>
+        <v>0.1503681864859235</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2010842585265122</v>
+        <v>0.201304411378432</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>297</v>
@@ -4087,19 +4087,19 @@
         <v>325287</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>292742</v>
+        <v>292707</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>356768</v>
+        <v>357442</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1641747912391355</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1477489000920781</v>
+        <v>0.1477312989501829</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1800636042581517</v>
+        <v>0.1804036471349627</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>793145</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>771512</v>
+        <v>768835</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>814057</v>
+        <v>815126</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8459606775000855</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8228878022678768</v>
+        <v>0.8200321380560067</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8682651319292974</v>
+        <v>0.869406009616248</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>810</v>
@@ -4137,19 +4137,19 @@
         <v>862914</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>833891</v>
+        <v>833662</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>887932</v>
+        <v>886828</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8267210967839038</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7989157414734879</v>
+        <v>0.798695588621568</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8506899041336761</v>
+        <v>0.8496318135140764</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1594</v>
@@ -4158,19 +4158,19 @@
         <v>1656059</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1624578</v>
+        <v>1623904</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1688604</v>
+        <v>1688639</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8358252087608644</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.819936395741848</v>
+        <v>0.8195963528650371</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8522510999079218</v>
+        <v>0.8522687010498171</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>514174</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>477744</v>
+        <v>476066</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>560082</v>
+        <v>559148</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1514792265437319</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1407467184313437</v>
+        <v>0.1402524675108192</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1650040590614794</v>
+        <v>0.1647289656398298</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>539</v>
@@ -4283,19 +4283,19 @@
         <v>629403</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>583726</v>
+        <v>583362</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>684331</v>
+        <v>679265</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1775696854656333</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1646829496265349</v>
+        <v>0.164580379928122</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1930660623732073</v>
+        <v>0.1916367501233719</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1047</v>
@@ -4304,19 +4304,19 @@
         <v>1143577</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1083616</v>
+        <v>1077963</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1207013</v>
+        <v>1202192</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1648068187388403</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1561655219439043</v>
+        <v>0.1553508186577207</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1739489397607601</v>
+        <v>0.1732541285381172</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>2880176</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2834268</v>
+        <v>2835202</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2916606</v>
+        <v>2918284</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8485207734562682</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8349959409385206</v>
+        <v>0.8352710343601703</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8592532815686563</v>
+        <v>0.8597475324891812</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2799</v>
@@ -4354,19 +4354,19 @@
         <v>2915139</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2860211</v>
+        <v>2865277</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2960816</v>
+        <v>2961180</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8224303145343667</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8069339376267928</v>
+        <v>0.8083632498766283</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8353170503734652</v>
+        <v>0.8354196200718784</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5522</v>
@@ -4375,19 +4375,19 @@
         <v>5795315</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5731879</v>
+        <v>5736700</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5855276</v>
+        <v>5860929</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8351931812611597</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8260510602392398</v>
+        <v>0.8267458714618828</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8438344780560956</v>
+        <v>0.8446491813422794</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>146841</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>127407</v>
+        <v>127595</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>168237</v>
+        <v>167962</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.2127662565266092</v>
+        <v>0.2127662565266093</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1846072219706491</v>
+        <v>0.184879418957939</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2437681506552166</v>
+        <v>0.2433696400831895</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>399</v>
@@ -4740,19 +4740,19 @@
         <v>180848</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>165981</v>
+        <v>163345</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>199218</v>
+        <v>197635</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2468166872152377</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2265265926072682</v>
+        <v>0.222929421007017</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2718872854644914</v>
+        <v>0.2697277483238618</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>610</v>
@@ -4761,19 +4761,19 @@
         <v>327688</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>301094</v>
+        <v>301966</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>354341</v>
+        <v>356611</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2303008649973641</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2116099744442816</v>
+        <v>0.2122232542490061</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2490322764216482</v>
+        <v>0.2506278346945258</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>543309</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>521913</v>
+        <v>522188</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>562743</v>
+        <v>562555</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7872337434733907</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7562318493447832</v>
+        <v>0.7566303599168093</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8153927780293508</v>
+        <v>0.815120581042061</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>839</v>
@@ -4811,19 +4811,19 @@
         <v>551874</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>533504</v>
+        <v>535087</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>566741</v>
+        <v>569377</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.7531833127847624</v>
+        <v>0.7531833127847622</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7281127145355082</v>
+        <v>0.7302722516761382</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7734734073927317</v>
+        <v>0.7770705789929829</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1357</v>
@@ -4832,19 +4832,19 @@
         <v>1095183</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1068530</v>
+        <v>1066260</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1121777</v>
+        <v>1120905</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7696991350026358</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7509677235783517</v>
+        <v>0.7493721653054743</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7883900255557182</v>
+        <v>0.7877767457509939</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>182309</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>158333</v>
+        <v>158168</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>208661</v>
+        <v>207866</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1739736749791806</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1510934948133042</v>
+        <v>0.1509363626216654</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1991209515704225</v>
+        <v>0.198361643997764</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>367</v>
@@ -4957,19 +4957,19 @@
         <v>204022</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>184437</v>
+        <v>185508</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>225738</v>
+        <v>225358</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1907428883860536</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1724325322814252</v>
+        <v>0.1734334799662814</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2110452679923752</v>
+        <v>0.2106902008908153</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>599</v>
@@ -4978,19 +4978,19 @@
         <v>386331</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>355158</v>
+        <v>355447</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>416537</v>
+        <v>418924</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1824442259483185</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1677225160125177</v>
+        <v>0.1678591310468493</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1967089802567181</v>
+        <v>0.1978358560215684</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>865604</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>839252</v>
+        <v>840047</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>889580</v>
+        <v>889745</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8260263250208192</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.800879048429577</v>
+        <v>0.8016383560022361</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8489065051866957</v>
+        <v>0.8490636373783348</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1147</v>
@@ -5028,19 +5028,19 @@
         <v>865596</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>843880</v>
+        <v>844260</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>885181</v>
+        <v>884110</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8092571116139464</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7889547320076249</v>
+        <v>0.7893097991091849</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8275674677185749</v>
+        <v>0.8265665200337189</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1878</v>
@@ -5049,19 +5049,19 @@
         <v>1731200</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1700994</v>
+        <v>1698607</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1762373</v>
+        <v>1762084</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8175557740516816</v>
+        <v>0.8175557740516813</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8032910197432819</v>
+        <v>0.8021641439784316</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8322774839874822</v>
+        <v>0.8321408689531508</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>158230</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>136649</v>
+        <v>134460</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>182174</v>
+        <v>181361</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1978242679671856</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1708432662302211</v>
+        <v>0.1681065803862236</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2277602924078133</v>
+        <v>0.22674304900583</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>217</v>
@@ -5174,19 +5174,19 @@
         <v>136565</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>121319</v>
+        <v>120127</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>155468</v>
+        <v>155384</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.168523109930539</v>
+        <v>0.1685231099305389</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.149709466455247</v>
+        <v>0.1482391818415713</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1918495655395135</v>
+        <v>0.191745852969083</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>383</v>
@@ -5195,19 +5195,19 @@
         <v>294794</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>267176</v>
+        <v>267995</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>323539</v>
+        <v>322327</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1830780567296268</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1659262743776447</v>
+        <v>0.1664342976704978</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.200929306791463</v>
+        <v>0.2001766199784321</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>641621</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>617677</v>
+        <v>618490</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>663202</v>
+        <v>665391</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8021757320328144</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7722397075921875</v>
+        <v>0.7732569509941698</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8291567337697791</v>
+        <v>0.8318934196137764</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>827</v>
@@ -5245,19 +5245,19 @@
         <v>673797</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>654894</v>
+        <v>654978</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>689043</v>
+        <v>690235</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8314768900694609</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8081504344604871</v>
+        <v>0.8082541470309172</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8502905335447533</v>
+        <v>0.8517608181584287</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1334</v>
@@ -5266,19 +5266,19 @@
         <v>1315418</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1286673</v>
+        <v>1287885</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1343036</v>
+        <v>1342217</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8169219432703733</v>
+        <v>0.8169219432703732</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7990706932085371</v>
+        <v>0.7998233800215679</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8340737256223552</v>
+        <v>0.8335657023295022</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>187890</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>166490</v>
+        <v>164968</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>210258</v>
+        <v>211580</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1899636860128912</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.168327438251219</v>
+        <v>0.1667883449794177</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.212578667585532</v>
+        <v>0.2139154817367497</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>436</v>
@@ -5391,19 +5391,19 @@
         <v>259673</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>237865</v>
+        <v>236446</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>282838</v>
+        <v>283786</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2325659078298832</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2130342670637348</v>
+        <v>0.2117630959846064</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2533124478365756</v>
+        <v>0.254161081114688</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>691</v>
@@ -5412,19 +5412,19 @@
         <v>447563</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>416056</v>
+        <v>416975</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>478205</v>
+        <v>479434</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.2125543626701217</v>
+        <v>0.2125543626701216</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1975912621584533</v>
+        <v>0.1980277266275121</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2271065828127844</v>
+        <v>0.2276903640836547</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>801193</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>778825</v>
+        <v>777503</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>822593</v>
+        <v>824115</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8100363139871087</v>
+        <v>0.810036313987109</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7874213324144678</v>
+        <v>0.7860845182632502</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8316725617487808</v>
+        <v>0.8332116550205823</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1122</v>
@@ -5462,19 +5462,19 @@
         <v>856885</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>833720</v>
+        <v>832772</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>878693</v>
+        <v>880112</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7674340921701168</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7466875521634248</v>
+        <v>0.7458389188853118</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7869657329362654</v>
+        <v>0.788236904015393</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1872</v>
@@ -5483,19 +5483,19 @@
         <v>1658079</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1627437</v>
+        <v>1626208</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1689586</v>
+        <v>1688667</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7874456373298782</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7728934171872155</v>
+        <v>0.772309635916345</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8024087378415464</v>
+        <v>0.8019722733724879</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>675270</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>634555</v>
+        <v>632248</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>724610</v>
+        <v>722844</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.1914574042116959</v>
+        <v>0.1914574042116958</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1799135786488717</v>
+        <v>0.1792595713738267</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2054466332475294</v>
+        <v>0.2049459219049194</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1419</v>
@@ -5608,19 +5608,19 @@
         <v>781108</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>743658</v>
+        <v>747032</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>821606</v>
+        <v>824023</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.2094539160882854</v>
+        <v>0.2094539160882853</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1994117955380253</v>
+        <v>0.2003165303538612</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2203134357291446</v>
+        <v>0.2209614251038768</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2283</v>
@@ -5629,19 +5629,19 @@
         <v>1456378</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1393922</v>
+        <v>1399565</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1511140</v>
+        <v>1516600</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2007064805581659</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1920994022419835</v>
+        <v>0.1928770684469373</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2082534406605682</v>
+        <v>0.2090058879738482</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>2851727</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2802387</v>
+        <v>2804153</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2892442</v>
+        <v>2894749</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8085425957883042</v>
+        <v>0.8085425957883041</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7945533667524706</v>
+        <v>0.7950540780950809</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8200864213511282</v>
+        <v>0.8207404286261732</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3935</v>
@@ -5679,19 +5679,19 @@
         <v>2948152</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2907654</v>
+        <v>2905237</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2985602</v>
+        <v>2982228</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7905460839117147</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7796865642708553</v>
+        <v>0.7790385748961233</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8005882044619747</v>
+        <v>0.7996834696461388</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6441</v>
@@ -5700,19 +5700,19 @@
         <v>5799878</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5745116</v>
+        <v>5739656</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5862334</v>
+        <v>5856691</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7992935194418341</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7917465593394315</v>
+        <v>0.7909941120261519</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8079005977580165</v>
+        <v>0.8071229315530626</v>
       </c>
     </row>
     <row r="18">
